--- a/Practice Sessions/Session 3/DGE_CRED_Model_sol/ExcelFiles/ModelSimulationandCalibration4Sectorsand2Regions.xlsx
+++ b/Practice Sessions/Session 3/DGE_CRED_Model_sol/ExcelFiles/ModelSimulationandCalibration4Sectorsand2Regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 3 revised\DGE_CRED_Model_sol\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 3 revised/Session 3 Final/DGE_CRED_Model_sol/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F2D341-1B8A-452D-A3AB-B95186F42353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42920D11-DB3C-DA41-9F7F-36CF47BF062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1236,14 +1236,14 @@
       <sheetName val="SSP585_AdaptPublic"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="W2">
@@ -1676,10 +1676,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1988,12 +1988,12 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.41796875" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2007,28 +2007,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B9BD39-5645-40F2-B949-3CEB927DD396}">
   <dimension ref="A1:AW87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="11.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -15090,24 +15090,24 @@
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="11.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -26356,7 +26356,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -28165,28 +28165,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F6855-CF3C-4ABD-9B29-65B56DF4C891}">
   <dimension ref="A1:AV87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="11.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -28481,7 +28481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -29375,7 +29375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -30418,7 +30418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -31014,7 +31014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -31461,7 +31461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -31610,7 +31610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -32057,7 +32057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -32206,7 +32206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -32802,7 +32802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -32951,7 +32951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -33100,7 +33100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -33249,7 +33249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -33547,7 +33547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -33696,7 +33696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -33994,7 +33994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -34143,7 +34143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -34292,7 +34292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -34739,7 +34739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -34888,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -35037,7 +35037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -35186,7 +35186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -35484,7 +35484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -35633,7 +35633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -35931,7 +35931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -36080,7 +36080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -36229,7 +36229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -36825,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -36974,7 +36974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -38613,7 +38613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -38762,7 +38762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -38911,7 +38911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -39060,7 +39060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -39209,7 +39209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -39358,7 +39358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -39507,7 +39507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -39656,7 +39656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -39805,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -39954,7 +39954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -40103,7 +40103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -40252,7 +40252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -40401,7 +40401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -40550,7 +40550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -40699,7 +40699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -40848,7 +40848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -40997,7 +40997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -41159,24 +41159,24 @@
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="11.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -41322,7 +41322,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -41471,7 +41471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -41620,7 +41620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -41918,7 +41918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -42067,7 +42067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -42216,7 +42216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -42365,7 +42365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -42663,7 +42663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -42961,7 +42961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -43110,7 +43110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -43259,7 +43259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -43557,7 +43557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -43706,7 +43706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -43855,7 +43855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -44004,7 +44004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -44153,7 +44153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -44302,7 +44302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -44451,7 +44451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -44600,7 +44600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -44898,7 +44898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -45047,7 +45047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -45196,7 +45196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -45345,7 +45345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -45494,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -45643,7 +45643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -45792,7 +45792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -45941,7 +45941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -46090,7 +46090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -46388,7 +46388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -46537,7 +46537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -46686,7 +46686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -46835,7 +46835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -46984,7 +46984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -47133,7 +47133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -47282,7 +47282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -47431,7 +47431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -47580,7 +47580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -47729,7 +47729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -47878,7 +47878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -48027,7 +48027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -48325,7 +48325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -48474,7 +48474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -48623,7 +48623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -48772,7 +48772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -48921,7 +48921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -49070,7 +49070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -49219,7 +49219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -49368,7 +49368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -49517,7 +49517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -49666,7 +49666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -49815,7 +49815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -49964,7 +49964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -50113,7 +50113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -50411,7 +50411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -50560,7 +50560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -50709,7 +50709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -50858,7 +50858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -51007,7 +51007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -51156,7 +51156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -51305,7 +51305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -51454,7 +51454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -51603,7 +51603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -51752,7 +51752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -51901,7 +51901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -52050,7 +52050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -52199,7 +52199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -52348,7 +52348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -52497,7 +52497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -52646,7 +52646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -52795,7 +52795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -52944,7 +52944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -53093,7 +53093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -53242,7 +53242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -53391,7 +53391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -53540,7 +53540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -53689,7 +53689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -53838,7 +53838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -53987,7 +53987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -54147,19 +54147,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.41796875" customWidth="1"/>
-    <col min="2" max="2" width="39.62890625" customWidth="1"/>
-    <col min="3" max="3" width="9.15625"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -54175,7 +54175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -54183,7 +54183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54191,7 +54191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54199,12 +54199,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -54212,7 +54212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -54220,12 +54220,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -54233,7 +54233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -54241,7 +54241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -54249,7 +54249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -54270,28 +54270,28 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7890625" customWidth="1"/>
-    <col min="2" max="2" width="18.62890625" customWidth="1"/>
-    <col min="3" max="3" width="27.3125" customWidth="1"/>
-    <col min="4" max="4" width="27.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.89453125" customWidth="1"/>
-    <col min="6" max="6" width="36.7890625" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.89453125" customWidth="1"/>
-    <col min="9" max="9" width="24.41796875" customWidth="1"/>
-    <col min="10" max="10" width="33.5234375" customWidth="1"/>
-    <col min="11" max="11" width="39.734375" customWidth="1"/>
-    <col min="12" max="12" width="18.62890625" customWidth="1"/>
-    <col min="13" max="13" width="33.734375" customWidth="1"/>
-    <col min="14" max="14" width="5.83984375" customWidth="1"/>
-    <col min="15" max="15" width="5.5234375" customWidth="1"/>
-    <col min="16" max="16" width="56.89453125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
+    <col min="15" max="15" width="5.5" customWidth="1"/>
+    <col min="16" max="16" width="56.83203125" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -54344,7 +54344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -54397,7 +54397,7 @@
         <v>0.91713849999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -54444,7 +54444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -54485,7 +54485,7 @@
         <v>0.22320193507546701</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -54526,7 +54526,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -54549,7 +54549,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -54572,7 +54572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -54595,7 +54595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -54629,14 +54629,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5234375" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
-    <col min="3" max="3" width="43.3125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -54647,7 +54647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -54658,7 +54658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -54669,7 +54669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -54680,7 +54680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -54691,12 +54691,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -54707,7 +54707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -54718,7 +54718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -54729,12 +54729,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -54745,7 +54745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -54756,7 +54756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -54767,7 +54767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -54778,7 +54778,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -54789,7 +54789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -54800,7 +54800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -54811,7 +54811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -54822,12 +54822,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -54838,7 +54838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -54849,7 +54849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -54860,7 +54860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -54871,7 +54871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -54882,7 +54882,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -54893,7 +54893,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -54904,7 +54904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -54926,14 +54926,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="86.20703125" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="77.89453125" customWidth="1"/>
+    <col min="1" max="1" width="86.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -54944,7 +54944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -54955,7 +54955,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -54966,7 +54966,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -54977,7 +54977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -54988,7 +54988,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -54999,7 +54999,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -55010,7 +55010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -55021,7 +55021,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -55043,7 +55043,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -55054,7 +55054,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -55065,7 +55065,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -55076,7 +55076,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -55087,7 +55087,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -55098,7 +55098,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -55109,7 +55109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -55120,12 +55120,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -55136,7 +55136,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -55147,7 +55147,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -55158,7 +55158,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -55169,12 +55169,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -55196,7 +55196,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -55207,7 +55207,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -55218,12 +55218,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -55234,7 +55234,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -55245,7 +55245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -55267,12 +55267,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -55283,7 +55283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -55294,7 +55294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -55305,7 +55305,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -55316,12 +55316,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -55332,7 +55332,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -55343,7 +55343,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -55354,7 +55354,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -55365,12 +55365,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -55381,7 +55381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -55392,7 +55392,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -55403,7 +55403,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -55414,12 +55414,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -55430,7 +55430,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -55441,7 +55441,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -55452,7 +55452,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -55463,12 +55463,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -55479,7 +55479,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -55490,7 +55490,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -55501,7 +55501,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -55512,12 +55512,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>185</v>
       </c>
@@ -55528,7 +55528,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -55539,7 +55539,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -55550,7 +55550,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -55561,7 +55561,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -55572,7 +55572,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -55583,7 +55583,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -55594,7 +55594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>192</v>
       </c>
@@ -55605,12 +55605,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>194</v>
       </c>
@@ -55621,7 +55621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -55632,7 +55632,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -55643,7 +55643,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -55654,7 +55654,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -55665,7 +55665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -55676,7 +55676,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>200</v>
       </c>
@@ -55687,7 +55687,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -55698,12 +55698,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -55714,7 +55714,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>204</v>
       </c>
@@ -55725,7 +55725,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -55736,7 +55736,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -55747,7 +55747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -55758,7 +55758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -55769,7 +55769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -55780,7 +55780,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>210</v>
       </c>
@@ -55791,12 +55791,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -55807,7 +55807,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -55818,7 +55818,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -55829,7 +55829,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -55840,7 +55840,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>216</v>
       </c>
@@ -55851,7 +55851,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>217</v>
       </c>
@@ -55862,7 +55862,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -55873,7 +55873,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -55897,15 +55897,15 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="6.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -55961,7 +55961,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -56017,7 +56017,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -56073,7 +56073,7 @@
         <v>1.02565</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -56129,7 +56129,7 @@
         <v>1.0243675000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -56185,7 +56185,7 @@
         <v>1.023149125</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -56241,7 +56241,7 @@
         <v>1.0219916689999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -56297,7 +56297,7 @@
         <v>1.0208920850000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -56353,7 +56353,7 @@
         <v>1.019847481</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -56409,7 +56409,7 @@
         <v>1.018855107</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -56465,7 +56465,7 @@
         <v>1.017912352</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -56521,7 +56521,7 @@
         <v>1.017016734</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -56577,7 +56577,7 @@
         <v>1.016165897</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -56633,7 +56633,7 @@
         <v>1.0153576019999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -56689,7 +56689,7 @@
         <v>1.014589722</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -56745,7 +56745,7 @@
         <v>1.013860236</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -56801,7 +56801,7 @@
         <v>1.013167224</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -56857,7 +56857,7 @@
         <v>1.0125088630000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -56913,7 +56913,7 @@
         <v>1.01188342</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -56969,7 +56969,7 @@
         <v>1.0112892490000001</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -57025,7 +57025,7 @@
         <v>1.010724787</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -57081,7 +57081,7 @@
         <v>1.010188547</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -57137,7 +57137,7 @@
         <v>1.0096791199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -57193,7 +57193,7 @@
         <v>1.0091951640000001</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -57249,7 +57249,7 @@
         <v>1.008735406</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -57305,7 +57305,7 @@
         <v>1.0082986350000001</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -57361,7 +57361,7 @@
         <v>1.0078837039999999</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -57417,7 +57417,7 @@
         <v>1.0074895180000001</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -57473,7 +57473,7 @@
         <v>1.007115043</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -57529,7 +57529,7 @@
         <v>1.00675929</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -57585,7 +57585,7 @@
         <v>1.0064213259999999</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -57641,7 +57641,7 @@
         <v>1.00610026</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -57697,7 +57697,7 @@
         <v>1.005795247</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -57753,7 +57753,7 @@
         <v>1.0055054839999999</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -57809,7 +57809,7 @@
         <v>1.0052302099999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -57865,7 +57865,7 @@
         <v>1.0049687</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -57921,7 +57921,7 @@
         <v>1.004720265</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -57977,7 +57977,7 @@
         <v>1.0044842510000001</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -58033,7 +58033,7 @@
         <v>1.004260039</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -58089,7 +58089,7 @@
         <v>1.0040470370000001</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -58145,7 +58145,7 @@
         <v>1.003844685</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -58201,7 +58201,7 @@
         <v>1.003652451</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -58257,7 +58257,7 @@
         <v>1.0034698280000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -58313,7 +58313,7 @@
         <v>1.0032963370000001</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -58369,7 +58369,7 @@
         <v>1.0031315199999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -58425,7 +58425,7 @@
         <v>1.002974944</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -58481,7 +58481,7 @@
         <v>1.0028261970000001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -58537,7 +58537,7 @@
         <v>1.002684887</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -58593,7 +58593,7 @@
         <v>1.002550643</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -58649,7 +58649,7 @@
         <v>1.0024231100000001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -58705,7 +58705,7 @@
         <v>1.0023019550000001</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -58761,7 +58761,7 @@
         <v>1.0021868570000001</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -58817,7 +58817,7 @@
         <v>1.002077514</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -58873,7 +58873,7 @@
         <v>1.001973639</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -58929,7 +58929,7 @@
         <v>1.0018749570000001</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -58985,7 +58985,7 @@
         <v>1.001781209</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -59041,7 +59041,7 @@
         <v>1.0016921480000001</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -59097,7 +59097,7 @@
         <v>1.001607541</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -59153,7 +59153,7 @@
         <v>1.0015271640000001</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -59209,7 +59209,7 @@
         <v>1.001450806</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -59265,7 +59265,7 @@
         <v>1.001378265</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -59321,7 +59321,7 @@
         <v>1.001309352</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -59377,7 +59377,7 @@
         <v>1.0012438850000001</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -59433,7 +59433,7 @@
         <v>1.0011816899999999</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -59489,7 +59489,7 @@
         <v>1.001122606</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -59545,7 +59545,7 @@
         <v>1.0010664760000001</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -59601,7 +59601,7 @@
         <v>1.0010131520000001</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -59657,7 +59657,7 @@
         <v>1.0009624939999999</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -59713,7 +59713,7 @@
         <v>1.000914369</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -59769,7 +59769,7 @@
         <v>1.000868651</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -59825,7 +59825,7 @@
         <v>1.0008252179999999</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -59881,7 +59881,7 @@
         <v>1.000783958</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -59937,7 +59937,7 @@
         <v>1.0007447599999999</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -59993,7 +59993,7 @@
         <v>1.0007075219999999</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>1.0006721460000001</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -60105,7 +60105,7 @@
         <v>1.000638538</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -60161,7 +60161,7 @@
         <v>1.000606611</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -60217,7 +60217,7 @@
         <v>1.0005762810000001</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -60273,7 +60273,7 @@
         <v>1.0005474670000001</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -60329,7 +60329,7 @@
         <v>1.000520093</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -60385,7 +60385,7 @@
         <v>1.000494089</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -60441,7 +60441,7 @@
         <v>1.0004693840000001</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -60497,7 +60497,7 @@
         <v>1.000445915</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -60553,7 +60553,7 @@
         <v>1.000423619</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -60609,7 +60609,7 @@
         <v>1.0004024380000001</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -60665,7 +60665,7 @@
         <v>1.000382316</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -60721,7 +60721,7 @@
         <v>1.0003632010000001</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -60777,7 +60777,7 @@
         <v>1.0003450410000001</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -60833,7 +60833,7 @@
         <v>1.000327789</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -60889,7 +60889,7 @@
         <v>1.0003113990000001</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -60945,7 +60945,7 @@
         <v>1.0002958289999999</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -61001,7 +61001,7 @@
         <v>1.000281038</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -61057,7 +61057,7 @@
         <v>1.000266986</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -61113,7 +61113,7 @@
         <v>1.0002536369999999</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -61169,7 +61169,7 @@
         <v>1.000240955</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -61225,7 +61225,7 @@
         <v>1.0002289069999999</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -61281,7 +61281,7 @@
         <v>1.0002174619999999</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -61337,7 +61337,7 @@
         <v>1.000206589</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -61393,7 +61393,7 @@
         <v>1.000196259</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -61449,7 +61449,7 @@
         <v>1.0001864460000001</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -61518,23 +61518,23 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>320</v>
       </c>
@@ -61680,7 +61680,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -61827,7 +61827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -61974,7 +61974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -62121,7 +62121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -62268,7 +62268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -62415,7 +62415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -62562,7 +62562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -62709,7 +62709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -62856,7 +62856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -63003,7 +63003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -63150,7 +63150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -63297,7 +63297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -63444,7 +63444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -63738,7 +63738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -63885,7 +63885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -64032,7 +64032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -64179,7 +64179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -64326,7 +64326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -64473,7 +64473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -64620,7 +64620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -64767,7 +64767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -64914,7 +64914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -65061,7 +65061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -65208,7 +65208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -65355,7 +65355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -65502,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -65649,7 +65649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -65796,7 +65796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -65943,7 +65943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -66090,7 +66090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -66237,7 +66237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -66384,7 +66384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -66531,7 +66531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -66678,7 +66678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -66825,7 +66825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -66972,7 +66972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -67119,7 +67119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -67266,7 +67266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -67413,7 +67413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -67560,7 +67560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -67707,7 +67707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -67854,7 +67854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -68001,7 +68001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -68148,7 +68148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -68295,7 +68295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -68442,7 +68442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -68589,7 +68589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -68736,7 +68736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -68883,7 +68883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -69030,7 +69030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -69177,7 +69177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -69471,7 +69471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -69618,7 +69618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -69765,7 +69765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -69912,7 +69912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -70059,7 +70059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -70206,7 +70206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -70353,7 +70353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -70500,7 +70500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -70647,7 +70647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -70794,7 +70794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -70941,7 +70941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -71088,7 +71088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -71235,7 +71235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -71382,7 +71382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -71529,7 +71529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -71676,7 +71676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -71823,7 +71823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -71970,7 +71970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -72117,7 +72117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -72264,7 +72264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -72411,7 +72411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -72558,7 +72558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -72705,7 +72705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -72852,7 +72852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -72999,7 +72999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -73146,7 +73146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -73293,7 +73293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -73440,7 +73440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -73587,7 +73587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -73734,7 +73734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -73881,7 +73881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -74028,7 +74028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -74175,7 +74175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -74335,23 +74335,23 @@
       <selection activeCell="W2" sqref="W2:W87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -74497,7 +74497,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -74644,7 +74644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -74791,7 +74791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -74938,7 +74938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -75085,7 +75085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -75232,7 +75232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -75379,7 +75379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -75526,7 +75526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -75673,7 +75673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -75820,7 +75820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -75967,7 +75967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -76114,7 +76114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -76261,7 +76261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -76408,7 +76408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -76555,7 +76555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -76702,7 +76702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -76849,7 +76849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -76996,7 +76996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -77143,7 +77143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -77290,7 +77290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -77437,7 +77437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -77584,7 +77584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -77731,7 +77731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -77878,7 +77878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -78025,7 +78025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -78172,7 +78172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -78319,7 +78319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -78466,7 +78466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -78613,7 +78613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -78760,7 +78760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -78907,7 +78907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -79054,7 +79054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -79201,7 +79201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -79348,7 +79348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -79495,7 +79495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -79642,7 +79642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -79789,7 +79789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -79936,7 +79936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -80083,7 +80083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -80230,7 +80230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -80377,7 +80377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -80524,7 +80524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -80671,7 +80671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -80818,7 +80818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -80965,7 +80965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -81112,7 +81112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -81259,7 +81259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -81406,7 +81406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -81553,7 +81553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -81700,7 +81700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -81847,7 +81847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -81994,7 +81994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -82141,7 +82141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -82288,7 +82288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -82435,7 +82435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -82582,7 +82582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -82729,7 +82729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -82876,7 +82876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -83023,7 +83023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -83170,7 +83170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -83317,7 +83317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -83464,7 +83464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -83611,7 +83611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -83758,7 +83758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -83905,7 +83905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -84052,7 +84052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -84199,7 +84199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -84346,7 +84346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -84493,7 +84493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -84640,7 +84640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -84787,7 +84787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -84934,7 +84934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -85081,7 +85081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -85228,7 +85228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -85375,7 +85375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -85522,7 +85522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -85669,7 +85669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -85816,7 +85816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -85963,7 +85963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -86110,7 +86110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -86257,7 +86257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -86404,7 +86404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -86551,7 +86551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -86698,7 +86698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -86845,7 +86845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -86992,7 +86992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -87148,27 +87148,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC15296-DB40-49FA-8D32-C927E9538C53}">
   <dimension ref="A1:AV87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -87314,7 +87314,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -87461,7 +87461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -87608,7 +87608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -87755,7 +87755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -87902,7 +87902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -88049,7 +88049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -88196,7 +88196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -88343,7 +88343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -88490,7 +88490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -88637,7 +88637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -88784,7 +88784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -88931,7 +88931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -89078,7 +89078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -89225,7 +89225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -89372,7 +89372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -89519,7 +89519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -89666,7 +89666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -89813,7 +89813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -89960,7 +89960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -90107,7 +90107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -90254,7 +90254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -90401,7 +90401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -90548,7 +90548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -90695,7 +90695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -90842,7 +90842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -90989,7 +90989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -91136,7 +91136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -91283,7 +91283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -91430,7 +91430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -91577,7 +91577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -91724,7 +91724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -91871,7 +91871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -92018,7 +92018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -92165,7 +92165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -92312,7 +92312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -92459,7 +92459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -92606,7 +92606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -92753,7 +92753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -92900,7 +92900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -93047,7 +93047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -93194,7 +93194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -93341,7 +93341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -93488,7 +93488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -93635,7 +93635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -93782,7 +93782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -93929,7 +93929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -94076,7 +94076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -94223,7 +94223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -94370,7 +94370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -94517,7 +94517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -94664,7 +94664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -94811,7 +94811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -94958,7 +94958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -95105,7 +95105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -95252,7 +95252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -95399,7 +95399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -95546,7 +95546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -95693,7 +95693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -95840,7 +95840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -95987,7 +95987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -96134,7 +96134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -96281,7 +96281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -96428,7 +96428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -96575,7 +96575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -96722,7 +96722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -96869,7 +96869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -97016,7 +97016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -97163,7 +97163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -97310,7 +97310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -97457,7 +97457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -97604,7 +97604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -97751,7 +97751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -97898,7 +97898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -98045,7 +98045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -98192,7 +98192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -98339,7 +98339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -98486,7 +98486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -98633,7 +98633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -98780,7 +98780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -98927,7 +98927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -99074,7 +99074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -99221,7 +99221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -99368,7 +99368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -99515,7 +99515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -99662,7 +99662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -99809,7 +99809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
